--- a/biology/Histoire de la zoologie et de la botanique/Wladimir_Peter_Köppen/Wladimir_Peter_Köppen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wladimir_Peter_Köppen/Wladimir_Peter_Köppen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wladimir_Peter_K%C3%B6ppen</t>
+          <t>Wladimir_Peter_Köppen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wladimir Peter Köppen, né le 25 septembre 1846 à Saint-Pétersbourg et mort le 22 juin 1940 à Graz (Autriche), est un météorologue, climatologue et botaniste russo-allemand. Il a élaboré le système de classification de Köppen, qui est toujours utilisé à l’heure actuelle avec quelques modifications, pour regrouper les climats en types similaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wladimir_Peter_K%C3%B6ppen</t>
+          <t>Wladimir_Peter_Köppen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ses parents soient allemands, il est né en Russie comme Russe allemand, et commence sa scolarité en Crimée. Dès l’école, il est attiré par les relations entre les plantes et le climat dans lequel elles poussent. Plus tard, il étudie dans les universités de Heidelberg puis de Leipzig, en Allemagne, dont il devient docteur en 1870. Sa thèse porte sur les effets de la température sur la croissance des plantes.
 Entre 1872 et 1873, Köppen est employé aux services météorologiques de Russie. En 1875, il retourne en Allemagne, où il devient chef du nouveau service de météorologie marine à l'Observatoire maritime allemand (Deutsche Seewarte) basé à Hambourg. Là, il est responsable de l’établissement d’un bulletin de prévision météo pour la partie nord-ouest de l’Allemagne. Après quatre ans de service, il peut revenir à ce qui l’intéressait prioritairement : la recherche fondamentale.
